--- a/CIVE08012-PM&BIM/Assignments/Assignment2/PythonScript/CodeRequired.xlsx
+++ b/CIVE08012-PM&BIM/Assignments/Assignment2/PythonScript/CodeRequired.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pmnotes\CIVE08012-PM&amp;BIM\Assignments\Assignment2\PythonScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pmnotes\CIVE08012-PM&amp;BIM\Assignments\Assignment2\PythonScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519B059-EB7F-4126-8A1D-42D53380DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B881D-4213-474B-9E41-4200EA6FDCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7476" yWindow="2568" windowWidth="13560" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Numbers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>K12345678</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>K93939393</t>
+  </si>
+  <si>
+    <t>K00277059</t>
+  </si>
+  <si>
+    <t>K45568978</t>
+  </si>
+  <si>
+    <t>K12455612</t>
+  </si>
+  <si>
+    <t>K45784578</t>
+  </si>
+  <si>
+    <t>K56895612</t>
+  </si>
+  <si>
+    <t>K45891256</t>
   </si>
 </sst>
 </file>
@@ -360,45 +378,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
